--- a/medicine/Enfance/Merlin_(série_littéraire,_T._A._Barron)/Merlin_(série_littéraire,_T._A._Barron).xlsx
+++ b/medicine/Enfance/Merlin_(série_littéraire,_T._A._Barron)/Merlin_(série_littéraire,_T._A._Barron).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Merlin_(s%C3%A9rie_litt%C3%A9raire,_T._A._Barron)</t>
+          <t>Merlin_(série_littéraire,_T._A._Barron)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Merlin (titre original : The Merlin Saga) est une série de romans racontant la vie de Merlin l'Enchanteur.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Merlin_(s%C3%A9rie_litt%C3%A9raire,_T._A._Barron)</t>
+          <t>Merlin_(série_littéraire,_T._A._Barron)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Présentation
-Cette série présente la vie de Merlin l'Enchanteur : le premier cycle parle de son enfance. Le deuxième raconte la vie de Basilgarrad, un immense dragon vert, et le troisième cycle celui du petit fils de Merlin.
-Résumé
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette série présente la vie de Merlin l'Enchanteur : le premier cycle parle de son enfance. Le deuxième raconte la vie de Basilgarrad, un immense dragon vert, et le troisième cycle celui du petit fils de Merlin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Merlin_(série_littéraire,_T._A._Barron)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Merlin_(s%C3%A9rie_litt%C3%A9raire,_T._A._Barron)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>L'histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Résumé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Un jeune enfant s'éveille sur une plage du pays de Galles. Il ne se souvient de rien, pas même son nom. Il est recueilli par une femme, Branwen. Mais il est toujours à la recherche de son passé, et part sur la mer dans une barque. Il arrive sur l'île magique de Fincayra, dont la forêt est ravagée par une maladie magique. Il doit renverser le seigneur tyrannique de l'île (Stangmar), avec l'aide de Rhia, une amie qu'il a rencontré.
 Les années ont passé et Fincayra a été rattachée au monde des esprits. En revanche, une graine magique plantée par Merlin a engendré une nouvelle île luxuriante, Avalon. C'est là que vit un minuscule lézard, Basile. Il comprend vite que sa tache est de sauver cette île, menacée par le démon Rita Gawr.
 Une prophétie stipule que l'héritier de Merlin sauvera Avalon, et qu'il naîtra l'année où les étoiles du ciel s'éteindront. Trois jeunes enfants sont nés : Tamwynn, un guide, Elli, une ancienne esclave, et Scree, un garçon Aigle. Mais la prophétie dit aussi qu'un autre des trois est destiné à détruire Avalon.
@@ -525,47 +578,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Merlin_(s%C3%A9rie_litt%C3%A9raire,_T._A._Barron)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Merlin_(s%C3%A9rie_litt%C3%A9raire,_T._A._Barron)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Diffusion</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diffusion en France
-La série Merlin a été traduite de l'anglais en français par Agnès Pagnol.
-Diffusion internationale
-Quelques pays comme l'Allemagne ont traduit cette série. 
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Merlin_(s%C3%A9rie_litt%C3%A9raire,_T._A._Barron)</t>
+          <t>Merlin_(série_littéraire,_T._A._Barron)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,55 +599,238 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Diffusion</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Diffusion en France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série Merlin a été traduite de l'anglais en français par Agnès Pagnol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Merlin_(série_littéraire,_T._A._Barron)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Merlin_(s%C3%A9rie_litt%C3%A9raire,_T._A._Barron)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Diffusion</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Diffusion internationale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quelques pays comme l'Allemagne ont traduit cette série. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Merlin_(série_littéraire,_T._A._Barron)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Merlin_(s%C3%A9rie_litt%C3%A9raire,_T._A._Barron)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des volumes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cycle I
-Les Années oubliées, Nathan, 2013 ((en) The Lost Years Of Merlin, 1996)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cycle I</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les Années oubliées, Nathan, 2013 ((en) The Lost Years Of Merlin, 1996)
 Les Sept Pouvoirs de l'enchanteur, Nathan, 2013 ((en) The Seven Songs, 1997)
 L'Épreuve du feu, Nathan, 2013 ((en) The Raging Fires, 1998)
 Le Miroir du destin, Nathan, 2014 ((en) The Mirror of Fate, 1999)
-Les Ailes de l'enchanteur, Nathan, 2014 ((en) A Wizards Wings, 2000)
-Cycle II
-Le Dragon d'Avalon, Nathan, 2015 ((en) The Dragon of Avalon, 2008)
+Les Ailes de l'enchanteur, Nathan, 2014 ((en) A Wizards Wings, 2000)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Merlin_(série_littéraire,_T._A._Barron)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Merlin_(s%C3%A9rie_litt%C3%A9raire,_T._A._Barron)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des volumes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cycle II</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Dragon d'Avalon, Nathan, 2015 ((en) The Dragon of Avalon, 2008)
 La Vengeance du mal, Nathan, 2016 ((en) Doomraga's Revenge, 2009)
-L'Ultime Maléfice, Nathan, 2016 ((en) Ultimate Magic, 2010)
-Cycle III
-Le Grand Arbre d'Avalon, Nathan, 2017 ((en) The Great Tree of Avalon, 2004)
+L'Ultime Maléfice, Nathan, 2016 ((en) Ultimate Magic, 2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Merlin_(série_littéraire,_T._A._Barron)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Merlin_(s%C3%A9rie_litt%C3%A9raire,_T._A._Barron)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des volumes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cycle III</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Grand Arbre d'Avalon, Nathan, 2017 ((en) The Great Tree of Avalon, 2004)
 L'Ombre des étoiles, Nathan, 2018 ((en) Shadows on the Stars, 2005)
-La Flamme éternelle, Nathan, 2019 ((en) The Eternal Flame, 2007)
-Guide
-Le Guide des quatre mondes, Nathan, 2019 ((en) The Book of Magic, 2011)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Merlin_(s%C3%A9rie_litt%C3%A9raire,_T._A._Barron)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Merlin_(s%C3%A9rie_litt%C3%A9raire,_T._A._Barron)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+La Flamme éternelle, Nathan, 2019 ((en) The Eternal Flame, 2007)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Merlin_(série_littéraire,_T._A._Barron)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Merlin_(s%C3%A9rie_litt%C3%A9raire,_T._A._Barron)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des volumes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Guide</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le Guide des quatre mondes, Nathan, 2019 ((en) The Book of Magic, 2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Merlin_(série_littéraire,_T._A._Barron)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Merlin_(s%C3%A9rie_litt%C3%A9raire,_T._A._Barron)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Les personnages changent d'un cycle à l'autre. Voici les personnages majeurs de ces onzes livres :
 Merlin, Shim, Fléau, Rhia, Bumbelwy, Branwen, Hallia, Nimue, Cairpé, Ganta, Aylah, Basilgarrad, Krystallus, Doomraga, Kulwych, Nuic, Tamwyn, Elli, Scree, Brionna, Lleu, Rhita Gawr, Dagda et Harlech.
@@ -636,31 +838,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Merlin_(s%C3%A9rie_litt%C3%A9raire,_T._A._Barron)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Merlin_(s%C3%A9rie_litt%C3%A9raire,_T._A._Barron)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Merlin_(série_littéraire,_T._A._Barron)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Merlin_(s%C3%A9rie_litt%C3%A9raire,_T._A._Barron)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Adaptation au cinéma</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après Allociné, les studios de cinéma Disney développent actuellement une adaptation cinématographique de la saga Merlin avec Ridley Scott à la réalisation.
 </t>
